--- a/CERCIFAF.xlsx
+++ b/CERCIFAF.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="786" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="786"/>
   </bookViews>
   <sheets>
-    <sheet name="Metadata" sheetId="1" r:id="rId1"/>
+    <sheet name="ENTITY" sheetId="1" r:id="rId1"/>
     <sheet name="ROC-SROC" sheetId="2" r:id="rId2"/>
-    <sheet name="YEARINCOMESTATEMENT" sheetId="3" r:id="rId3"/>
-    <sheet name="YEARAPPLICATIONOFRESULTS" sheetId="4" r:id="rId4"/>
+    <sheet name="FINANCIALSTATEMENTS" sheetId="3" r:id="rId3"/>
+    <sheet name="APPLICATIONOFRESULTS" sheetId="4" r:id="rId4"/>
     <sheet name="BOARD" sheetId="5" r:id="rId5"/>
     <sheet name="PARTICIPATION" sheetId="6" r:id="rId6"/>
     <sheet name="MEMBER" sheetId="7" r:id="rId7"/>
-    <sheet name="DEDUCTIONFOROTHER" sheetId="8" r:id="rId8"/>
+    <sheet name="ALLOCATIONOFRESERVES" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -31,26 +31,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="106">
   <si>
     <t>year</t>
   </si>
   <si>
-    <t>typeOfOrganisation</t>
-  </si>
-  <si>
     <t>Cooperativa</t>
   </si>
   <si>
-    <t>organisationName</t>
-  </si>
-  <si>
     <t>CERCIFAF</t>
   </si>
   <si>
-    <t>organisationURL</t>
-  </si>
-  <si>
     <t>http://www.cercifaf.pt/</t>
   </si>
   <si>
@@ -75,48 +66,18 @@
     <t>resultsSurpluses</t>
   </si>
   <si>
-    <t>profitsThirdPartyResults</t>
-  </si>
-  <si>
-    <t>profitsExtraordinaryResults</t>
-  </si>
-  <si>
     <t>yearNetProfit</t>
   </si>
   <si>
-    <t>deductionForLegalReserve</t>
-  </si>
-  <si>
-    <t>deductionForEducationAndTrainingReserve</t>
-  </si>
-  <si>
     <t>retainedEarnings</t>
   </si>
   <si>
     <t>interestPayment</t>
   </si>
   <si>
-    <t>allocationToVoluntaryReserves</t>
-  </si>
-  <si>
-    <t>totalOrganisationRefunds</t>
-  </si>
-  <si>
-    <t>lossTreatmentLiabilities</t>
-  </si>
-  <si>
-    <t>lossTreatmentLossesGeneratedByMembers</t>
-  </si>
-  <si>
     <t>allocatioOfProfitsIndivisiblesReserves</t>
   </si>
   <si>
-    <t>deliversRefunds</t>
-  </si>
-  <si>
-    <t>appliesOtherDeduction</t>
-  </si>
-  <si>
     <t>DED1</t>
   </si>
   <si>
@@ -352,6 +313,42 @@
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>typeOfEntity</t>
+  </si>
+  <si>
+    <t>entityName</t>
+  </si>
+  <si>
+    <t>entityURL</t>
+  </si>
+  <si>
+    <t>profitsNonMemberyResults</t>
+  </si>
+  <si>
+    <t>profitsExtraEntityResults</t>
+  </si>
+  <si>
+    <t>allocationForLegalReserve</t>
+  </si>
+  <si>
+    <t>allocationForEducationAndTrainingReserve</t>
+  </si>
+  <si>
+    <t>treatmentOfLiabilitiesDebts</t>
+  </si>
+  <si>
+    <t>treatmentOfLiabilitiesLosses</t>
+  </si>
+  <si>
+    <t>otherDeduction</t>
+  </si>
+  <si>
+    <t>distributionOfReturns</t>
+  </si>
+  <si>
+    <t>amountOfRefunds</t>
   </si>
 </sst>
 </file>
@@ -380,18 +377,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -513,7 +504,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -528,6 +518,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -810,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:B5"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -831,34 +822,34 @@
     </row>
     <row r="2" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>6</v>
+        <v>96</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -895,13 +886,13 @@
   <sheetData>
     <row r="1" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2" s="12"/>
     </row>
@@ -920,7 +911,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:B6"/>
+      <selection sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -931,38 +922,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>11</v>
+      <c r="A1" s="26" t="s">
+        <v>8</v>
       </c>
       <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
-        <v>12</v>
+      <c r="A2" s="26" t="s">
+        <v>9</v>
       </c>
       <c r="B2" s="12"/>
     </row>
     <row r="3" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3" s="12"/>
     </row>
     <row r="4" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="B4" s="12"/>
     </row>
     <row r="5" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="B5" s="12"/>
     </row>
     <row r="6" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B6" s="12">
         <v>-59552.93</v>
@@ -980,10 +971,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection sqref="A1:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -995,70 +986,58 @@
   <sheetData>
     <row r="1" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="B2" s="12"/>
     </row>
     <row r="3" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B3" s="12"/>
     </row>
     <row r="4" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B4" s="12"/>
     </row>
     <row r="5" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="B5" s="12"/>
     </row>
     <row r="6" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="B6" s="12"/>
     </row>
     <row r="7" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B7" s="12"/>
     </row>
     <row r="8" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="B8" s="12"/>
     </row>
     <row r="9" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="12"/>
-    </row>
-    <row r="10" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="12"/>
-    </row>
-    <row r="11" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>28</v>
+        <v>103</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1094,22 +1073,22 @@
   <sheetData>
     <row r="1" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1122,39 +1101,39 @@
     </row>
     <row r="3" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B4" s="15">
         <v>3</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E4" s="15">
         <v>7</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="H4" s="15">
         <v>3</v>
@@ -1162,72 +1141,72 @@
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="D8" s="9" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="5"/>
@@ -1236,10 +1215,10 @@
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="D9" s="9" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="16"/>
@@ -1248,10 +1227,10 @@
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="D10" s="9" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="2"/>
@@ -1260,10 +1239,10 @@
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="D11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>38</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="2"/>
@@ -1274,10 +1253,10 @@
     </row>
     <row r="13" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
@@ -1294,10 +1273,10 @@
     </row>
     <row r="15" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
@@ -1306,7 +1285,7 @@
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B16" s="11"/>
       <c r="D16" s="1"/>
@@ -1316,7 +1295,7 @@
     </row>
     <row r="17" spans="1:8" s="3" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B17" s="9"/>
       <c r="D17" s="1"/>
@@ -1362,7 +1341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1384,28 +1363,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1420,25 +1399,25 @@
     </row>
     <row r="3" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B3" s="12">
         <v>2016</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E3" s="12">
         <v>2016</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H3" s="12">
         <v>2016</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K3" s="12">
         <v>2016</v>
@@ -1446,25 +1425,25 @@
     </row>
     <row r="4" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B4" s="12">
         <v>2019</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E4" s="12">
         <v>2019</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="H4" s="12">
         <v>2019</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="K4" s="12">
         <v>2019</v>
@@ -1472,106 +1451,106 @@
     </row>
     <row r="5" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1586,25 +1565,25 @@
     </row>
     <row r="12" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B12" s="12">
         <v>2016</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E12" s="12">
         <v>2016</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H12" s="12">
         <v>2016</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K12" s="12">
         <v>2016</v>
@@ -1612,25 +1591,25 @@
     </row>
     <row r="13" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B13" s="12">
         <v>2019</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E13" s="12">
         <v>2019</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="H13" s="12">
         <v>2019</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="K13" s="12">
         <v>2019</v>
@@ -1638,106 +1617,106 @@
     </row>
     <row r="14" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H19" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J19" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="K19" s="12" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1752,25 +1731,25 @@
     </row>
     <row r="21" spans="1:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B21" s="12">
         <v>2016</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E21" s="12">
         <v>2016</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H21" s="12">
         <v>2016</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K21" s="12">
         <v>2016</v>
@@ -1778,25 +1757,25 @@
     </row>
     <row r="22" spans="1:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B22" s="12">
         <v>2019</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E22" s="12">
         <v>2019</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="H22" s="12">
         <v>2019</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="K22" s="12">
         <v>2019</v>
@@ -1804,88 +1783,88 @@
     </row>
     <row r="23" spans="1:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -1918,7 +1897,7 @@
     </row>
     <row r="29" spans="1:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B29" s="12">
         <v>2016</v>
@@ -1938,7 +1917,7 @@
     </row>
     <row r="30" spans="1:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B30" s="12">
         <v>2019</v>
@@ -1958,10 +1937,10 @@
     </row>
     <row r="31" spans="1:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -1978,10 +1957,10 @@
     </row>
     <row r="32" spans="1:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -1998,10 +1977,10 @@
     </row>
     <row r="33" spans="1:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -2226,8 +2205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2245,22 +2224,22 @@
   <sheetData>
     <row r="1" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2273,110 +2252,110 @@
     </row>
     <row r="3" spans="1:8" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B4" s="10"/>
       <c r="D4" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E4" s="12"/>
       <c r="G4" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B6" s="10"/>
       <c r="D6" s="9" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="E6" s="12"/>
       <c r="G6" s="9" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2389,110 +2368,110 @@
     </row>
     <row r="12" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B13" s="10"/>
       <c r="D13" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E13" s="12"/>
       <c r="G13" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B15" s="10"/>
       <c r="D15" s="9" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="E15" s="12"/>
       <c r="G15" s="9" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2505,106 +2484,106 @@
     </row>
     <row r="21" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B22" s="10"/>
       <c r="D22" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E22" s="12"/>
       <c r="G22" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E23" s="12"/>
       <c r="G23" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B24" s="10"/>
       <c r="D24" s="9" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E24" s="12"/>
       <c r="G24" s="9" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="H24" s="10"/>
     </row>
     <row r="25" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2617,90 +2596,90 @@
     </row>
     <row r="29" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B30" s="10"/>
       <c r="D30" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E30" s="12"/>
       <c r="G30" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B32" s="10"/>
       <c r="D32" s="9" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="E32" s="12"/>
       <c r="G32" s="9" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="H32" s="10"/>
     </row>
     <row r="33" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="H33" s="21" t="s">
-        <v>32</v>
+        <v>18</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -2708,104 +2687,104 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="23"/>
+      <c r="H34" s="22"/>
     </row>
     <row r="35" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="22"/>
+      <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
       <c r="B36" s="11"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="23"/>
+      <c r="E36" s="22"/>
       <c r="F36" s="5"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="23"/>
+      <c r="H36" s="22"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D37" s="4"/>
-      <c r="E37" s="22"/>
+      <c r="E37" s="21"/>
       <c r="F37" s="5"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="24"/>
+      <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B38" s="10"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="22"/>
+      <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="22"/>
+      <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B40" s="10"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="22"/>
+      <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>32</v>
+      <c r="A41" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="22"/>
+      <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8" s="5" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
-      <c r="B42" s="22"/>
+      <c r="B42" s="21"/>
       <c r="D42" s="4"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="22"/>
+      <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
-      <c r="H43" s="23"/>
+      <c r="H43" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -2833,11 +2812,11 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
-      <c r="D1" s="25"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12"/>
@@ -2846,19 +2825,19 @@
     </row>
     <row r="3" spans="1:4" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
-      <c r="D3" s="25"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
-      <c r="D4" s="25"/>
+      <c r="D4" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
